--- a/biology/Botanique/Willdenowia_(plante)/Willdenowia_(plante).xlsx
+++ b/biology/Botanique/Willdenowia_(plante)/Willdenowia_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Willdenowia est un genre de plantes, de la famille des Restionaceae. Il est endémique du fynbos de la province du Cap occidental en Afrique du Sud.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (15 juillet 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (15 juillet 2016) :
 Willdenowia affinis Pillans
 Willdenowia arescens Kunth
 Willdenowia bolusii Pillans
@@ -526,7 +540,7 @@
 Willdenowia stokoei Pillans
 Willdenowia sulcata Mast.
 Willdenowia teres Thunb.
-Selon Catalogue of Life                                   (15 juillet 2016)[3] :
+Selon Catalogue of Life                                   (15 juillet 2016) :
 Willdenowia affinis Pillans
 Willdenowia arescens Kunth
 Willdenowia bolusii Pillans
@@ -539,9 +553,9 @@
 Willdenowia stokoei Pillans
 Willdenowia sulcata Mast.
 Willdenowia teres Thunb.
-Selon GRIN            (15 juillet 2016)[4] :
+Selon GRIN            (15 juillet 2016) :
 Willdenowia teres Thunb.
-Selon World Checklist of Selected Plant Families (WCSP)  (15 juillet 2016)[5] :
+Selon World Checklist of Selected Plant Families (WCSP)  (15 juillet 2016) :
 Willdenowia affinis Pillans (1928)
 Willdenowia arescens Kunth (1841)
 Willdenowia bolusii Pillans (1928)
@@ -554,7 +568,7 @@
 Willdenowia stokoei Pillans (1942)
 Willdenowia sulcata Mast., J. Linn. Soc. (1869)
 Willdenowia teres Thunb. (1790)
-Selon NCBI  (15 juillet 2016)[6] :
+Selon NCBI  (15 juillet 2016) :
 Willdenowia arescens
 Willdenowia bolusii
 Willdenowia glomerata
@@ -562,7 +576,7 @@
 Willdenowia rugosa
 Willdenowia sulcata
 Willdenowia teres
-Selon The Plant List            (15 juillet 2016)[7] :
+Selon The Plant List            (15 juillet 2016) :
 Willdenowia affinis Pillans
 Willdenowia arescens Kunth
 Willdenowia bolusii Pillans
@@ -575,7 +589,7 @@
 Willdenowia stokoei Pillans
 Willdenowia sulcata Mast.
 Willdenowia teres Thunb.
-Selon Tropicos                                           (15 juillet 2016)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (15 juillet 2016) (Attention liste brute contenant possiblement des synonymes) :
 Willdenowia affinis Pillans
 Willdenowia arescens Kunth
 Willdenowia argentea (Nees ex Kunth) Hieron.
